--- a/Python MP/MP_InventorySpecifications.xlsx
+++ b/Python MP/MP_InventorySpecifications.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>HasMaxLevel</t>
   </si>
@@ -109,7 +109,46 @@
     <t>WHITE BEANS_GCMF [Non GMO]</t>
   </si>
   <si>
-    <t>PALMOLIEN OIL_CÔTE D'IVOIRE_200960 [Non GMO]</t>
+    <t>VENEZIA (ITALY)</t>
+  </si>
+  <si>
+    <t>MOUNDOU (CHAD)</t>
+  </si>
+  <si>
+    <t>BELAWAN (INDONESIA)</t>
+  </si>
+  <si>
+    <t>LE HAVRE (FRANCE)</t>
+  </si>
+  <si>
+    <t>DURBAN (SOUTH AFRICA)</t>
+  </si>
+  <si>
+    <t>KANO (NIGERIA)</t>
+  </si>
+  <si>
+    <t>NGAOUNDERE (CAMEROON)</t>
+  </si>
+  <si>
+    <t>SURABAYA (INDONESIA)</t>
+  </si>
+  <si>
+    <t>ZINDER (NIGER)</t>
+  </si>
+  <si>
+    <t>MERSIN (TURKEY)</t>
+  </si>
+  <si>
+    <t>ODESSA (UKRAINE)</t>
+  </si>
+  <si>
+    <t>ANTWERP (BELGIUM)</t>
+  </si>
+  <si>
+    <t>COTONOU (BENIN)</t>
+  </si>
+  <si>
+    <t>PALMOLIEN OIL_NIGER_200961 [Non GMO]</t>
   </si>
   <si>
     <t>In-Kind Donation</t>
@@ -118,70 +157,61 @@
     <t>25% BROKEN RICE_MAURITANIA_200640 [Non GMO]</t>
   </si>
   <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_NIGER_200777 [Non GMO]</t>
+  </si>
+  <si>
+    <t>PALMOLIEN OIL_MALI_200719 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_MALI_200719 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_NIGER_200961 [Non GMO]</t>
+  </si>
+  <si>
+    <t>25% BROKEN RICE_CÔTE D'IVOIRE_200960 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL PLUS (CSB++)_CAMEROON_200777 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_CAMEROON_200777 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SPLIT YELLOW PEAS_CHAD_200777 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_NIGERIA_200777 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SPLIT YELLOW PEAS_CHAD_200713 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SPLIT YELLOW PEAS_CEN.AFRICAN REP_200799 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_CAMEROON_200799 [Non GMO]</t>
+  </si>
+  <si>
+    <t>PALMOLIEN OIL_BURKINA FASO_200793 [Non GMO]</t>
+  </si>
+  <si>
     <t>SUPER CEREAL (CSB+) WITH SUGAR_CHAD_200777 [Non GMO]</t>
   </si>
   <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_MAURITANIA_200640 [Non GMO]</t>
+  </si>
+  <si>
     <t>SPLIT YELLOW PEAS_CÔTE D'IVOIRE_200960 [Non GMO]</t>
   </si>
   <si>
-    <t>SUPER CEREAL (CSB+) WITH SUGAR_BURKINA FASO_200793 [Non GMO]</t>
-  </si>
-  <si>
-    <t>PALMOLIEN OIL_BURKINA FASO_200793 [Non GMO]</t>
-  </si>
-  <si>
-    <t>SPLIT YELLOW PEAS_CEN.AFRICAN REP_200799 [Non GMO]</t>
-  </si>
-  <si>
-    <t>SUPER CEREAL (CSB+) WITH SUGAR_NIGER_200961 [Non GMO]</t>
-  </si>
-  <si>
-    <t>25% BROKEN RICE_CÔTE D'IVOIRE_200960 [Non GMO]</t>
-  </si>
-  <si>
-    <t>SUPER CEREAL PLUS (CSB++)_CAMEROON_200799 [Non GMO]</t>
-  </si>
-  <si>
-    <t>SPLIT YELLOW PEAS_CHAD_200713 [Non GMO]</t>
-  </si>
-  <si>
-    <t>PALMOLIEN OIL_MALI_200719 [Non GMO]</t>
-  </si>
-  <si>
-    <t>SUPER CEREAL (CSB+) WITH SUGAR_MAURITANIA_200640 [Non GMO]</t>
-  </si>
-  <si>
-    <t>SUPER CEREAL (CSB+) WITH SUGAR_NIGER_200777 [Non GMO]</t>
-  </si>
-  <si>
     <t>SUPER CEREAL (CSB+) WITH SUGAR_CHAD_200713 [Non GMO]</t>
   </si>
   <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_CEN.AFRICAN REP_200799 [Non GMO]</t>
+  </si>
+  <si>
     <t>SPLIT YELLOW PEAS_MALI_200719 [Non GMO]</t>
-  </si>
-  <si>
-    <t>SUPER CEREAL (CSB+) WITH SUGAR_NIGERIA_200777 [Non GMO]</t>
-  </si>
-  <si>
-    <t>SUPER CEREAL (CSB+) WITH SUGAR_CAMEROON_200799 [Non GMO]</t>
-  </si>
-  <si>
-    <t>SUPER CEREAL (CSB+) WITH SUGAR_MALI_200719 [Non GMO]</t>
-  </si>
-  <si>
-    <t>SUPER CEREAL (CSB+) WITH SUGAR_CAMEROON_200777 [Non GMO]</t>
-  </si>
-  <si>
-    <t>SUPER CEREAL (CSB+) WITH SUGAR_CEN.AFRICAN REP_200799 [Non GMO]</t>
-  </si>
-  <si>
-    <t>SPLIT YELLOW PEAS_CHAD_200777 [Non GMO]</t>
-  </si>
-  <si>
-    <t>SUPER CEREAL PLUS (CSB++)_CAMEROON_200777 [Non GMO]</t>
-  </si>
-  <si>
-    <t>PALMOLIEN OIL_NIGER_200961 [Non GMO]</t>
   </si>
   <si>
     <t>25% BROKEN RICE_GUINEA-BISSAU_200846 [Non GMO]</t>
@@ -521,7 +551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1580,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K26" t="s">
         <v>31</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>42916</v>
-      </c>
-      <c r="K26" t="s">
-        <v>32</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1621,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>42819</v>
+        <v>43070</v>
       </c>
       <c r="K27" t="s">
         <v>32</v>
@@ -1662,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>42850</v>
+        <v>43070</v>
       </c>
       <c r="K28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1703,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>42916</v>
+        <v>43070</v>
       </c>
       <c r="K29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -1744,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>42830</v>
+        <v>43070</v>
       </c>
       <c r="K30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -1785,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>42830</v>
+        <v>43070</v>
       </c>
       <c r="K31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -1826,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>42850</v>
+        <v>43070</v>
       </c>
       <c r="K32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -1867,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>42819</v>
+        <v>43070</v>
       </c>
       <c r="K33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -1908,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>42916</v>
+        <v>43070</v>
       </c>
       <c r="K34" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -1949,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>42850</v>
+        <v>43070</v>
       </c>
       <c r="K35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -1990,13 +2020,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>42760</v>
+        <v>43070</v>
       </c>
       <c r="K36" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2031,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>42830</v>
+        <v>43070</v>
       </c>
       <c r="K37" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2072,13 +2102,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>42819</v>
+        <v>43070</v>
       </c>
       <c r="K38" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2113,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>42850</v>
+        <v>43070</v>
       </c>
       <c r="K39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2154,13 +2184,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>42860</v>
+        <v>43070</v>
       </c>
       <c r="K40" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2195,13 +2225,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>42830</v>
+        <v>43070</v>
       </c>
       <c r="K41" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2236,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>42850</v>
+        <v>43070</v>
       </c>
       <c r="K42" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2277,13 +2307,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>42850</v>
+        <v>43070</v>
       </c>
       <c r="K43" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2318,13 +2348,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>42830</v>
+        <v>43070</v>
       </c>
       <c r="K44" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2359,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>42850</v>
+        <v>43070</v>
       </c>
       <c r="K45" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2400,13 +2430,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>42860</v>
+        <v>43070</v>
       </c>
       <c r="K46" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2441,13 +2471,13 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>42850</v>
+        <v>43070</v>
       </c>
       <c r="K47" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2482,13 +2512,13 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>42850</v>
+        <v>43070</v>
       </c>
       <c r="K48" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2523,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>42850</v>
+        <v>43070</v>
       </c>
       <c r="K49" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2564,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>42819</v>
+        <v>43070</v>
       </c>
       <c r="K50" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -2605,18 +2635,1330 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K53" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K54" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K55" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K56" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="K61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K62" t="s">
+        <v>45</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>46</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K63" t="s">
+        <v>45</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K65" t="s">
+        <v>45</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>49</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K66" t="s">
+        <v>45</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>50</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K67" t="s">
+        <v>45</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>51</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="K68" t="s">
+        <v>45</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>52</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K69" t="s">
+        <v>45</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>53</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K70" t="s">
+        <v>45</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>54</v>
+      </c>
+      <c r="J71" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K71" t="s">
+        <v>45</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>55</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K72" t="s">
+        <v>45</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
         <v>56</v>
       </c>
-      <c r="J51" s="2" t="n">
-        <v>42786</v>
-      </c>
-      <c r="K51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
+      <c r="J73" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K73" t="s">
+        <v>45</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>57</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>58</v>
+      </c>
+      <c r="J75" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K75" t="s">
+        <v>45</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>59</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K76" t="s">
+        <v>45</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>60</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K77" t="s">
+        <v>45</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>61</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K78" t="s">
+        <v>45</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>62</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="K79" t="s">
+        <v>45</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>63</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K80" t="s">
+        <v>45</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>64</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K81" t="s">
+        <v>45</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>65</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K82" t="s">
+        <v>45</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>66</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="K83" t="s">
+        <v>45</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
         <v>0</v>
       </c>
     </row>
